--- a/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
+++ b/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
+++ b/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
+++ b/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
+++ b/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
+++ b/ig/ch-orf/CodeSystem-ch-orf-cs-consentstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
